--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\作業報告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\Git\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -248,6 +248,17 @@
     <rPh sb="23" eb="24">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 基準線作図処理について調査資料を作成。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1265,7 +1276,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1432,9 +1443,15 @@
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="19">
+        <v>44732</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="20"/>
     </row>
@@ -1730,20 +1747,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1966,6 +1983,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1978,14 +2003,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1453,7 +1453,9 @@
         <v>20</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
@@ -1747,23 +1749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1982,10 +1967,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2008,20 +2021,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\Git\作業報告書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -229,28 +229,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①円弧配列 基準線作図処理について調査資料作成中。</t>
-    <rPh sb="9" eb="11">
-      <t>サクズ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>平</t>
     <rPh sb="0" eb="1">
       <t>タイラ</t>
@@ -258,7 +236,46 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①円弧配列 基準線作図処理について調査資料を作成。</t>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 ベース径線作図処理について調査資料作成中。</t>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 ベース径線作図処理について調査資料を作成。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 ベースライン作図処理について調査資料作成中。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1276,7 +1293,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1303,7 @@
     <col min="3" max="3" width="24.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.875" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2.625" style="2"/>
   </cols>
@@ -1348,7 +1365,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1421,7 +1438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>3</v>
       </c>
@@ -1432,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="20">
@@ -1447,25 +1464,33 @@
         <v>44732</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19">
+        <v>44733</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
@@ -1749,6 +1774,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1967,38 +2009,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2021,9 +2035,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -276,6 +276,13 @@
   </si>
   <si>
     <t>①円弧配列 ベースライン作図処理について調査資料作成中。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1293,7 +1300,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1365,7 +1372,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1492,15 +1499,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="19">
+        <v>44734</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
@@ -1783,14 +1798,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2009,6 +2016,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2018,23 +2033,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2051,4 +2049,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -282,6 +282,32 @@
     <t>平</t>
     <rPh sb="0" eb="1">
       <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 ベースライン作図処理について調査資料作成中。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 
+・ベースライン作図処理について調査資料作成。
+・円弧配置について調査資料作成中。</t>
+    <rPh sb="31" eb="33">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1300,7 +1326,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1372,7 +1398,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1510,22 +1536,30 @@
         <v>23</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="19">
+        <v>44735</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
@@ -1789,15 +1823,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2016,6 +2041,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2025,14 +2059,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2047,6 +2073,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -309,6 +309,10 @@
     <rPh sb="45" eb="46">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 円弧配置について調査資料作成中。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -603,7 +607,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1326,7 +1344,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1398,7 +1416,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>55</v>
+        <v>63.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1565,11 +1583,19 @@
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="19">
+        <v>44736</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
@@ -1753,62 +1779,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D20">
+  <conditionalFormatting sqref="D14:D17 D19:D20">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C19 B12:B36">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D21:D28">
     <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1823,6 +1859,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2041,15 +2086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2059,6 +2095,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2073,14 +2117,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -313,6 +313,32 @@
   </si>
   <si>
     <t>①円弧配列 円弧配置について調査資料作成中。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 改修内容・工数調査中。</t>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1344,7 +1370,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1416,7 +1442,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>63.5</v>
+        <v>68.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1601,11 +1627,19 @@
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="19">
+        <v>44739</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
@@ -1859,12 +1893,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2087,17 +2120,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2122,18 +2165,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -338,6 +338,22 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 改修内容・工数調査。</t>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -633,7 +649,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1370,7 +1393,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1442,7 +1465,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>68.5</v>
+        <v>73.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1645,11 +1668,19 @@
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19">
+        <v>44740</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
@@ -1813,72 +1844,77 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D17 D19:D20">
+  <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
     <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D21:D28">
     <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1893,11 +1929,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2120,27 +2157,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2165,9 +2192,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -355,6 +355,14 @@
     <rPh sb="13" eb="15">
       <t>チョウサ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改修内容・工数調査。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改修内容・工数調査。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -649,7 +657,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1393,7 +1415,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1465,7 +1487,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>73.5</v>
+        <v>85.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1686,21 +1708,37 @@
       <c r="B21" s="18">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="19">
+        <v>44741</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="19">
+        <v>44742</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
@@ -1845,76 +1883,86 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D23:D28">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1929,15 +1977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2156,6 +2195,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2165,14 +2213,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2187,6 +2227,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -363,6 +363,28 @@
   </si>
   <si>
     <t>改修内容・工数調査。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②パタ検 改修内容・工数調査中。</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -657,7 +679,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1413,9 +1442,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1487,7 +1516,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>85.5</v>
+        <v>92.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1744,11 +1773,19 @@
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="19">
+        <v>44743</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
@@ -1883,86 +1920,91 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D24:D28">
     <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1977,6 +2019,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2195,24 +2254,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2229,29 +2296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -679,7 +679,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1444,7 +1451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1516,7 +1523,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>92.5</v>
+        <v>100.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1791,11 +1798,19 @@
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="19">
+        <v>44747</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
@@ -1920,91 +1935,96 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
     <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D25:D28">
     <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2019,20 +2039,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2255,6 +2275,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2267,14 +2295,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -384,6 +384,32 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②パタ検 改修内容・工数調査。
+④ 面積変動 改修内容・工数調査中。</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -679,7 +705,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1451,7 +1484,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1523,7 +1556,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>100.5</v>
+        <v>108.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1812,15 +1845,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="19">
+        <v>44748</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
@@ -1935,96 +1976,101 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
     <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D26:D28">
     <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2039,20 +2085,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2275,14 +2321,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2295,6 +2333,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -409,6 +409,16 @@
       <t>メンセキ</t>
     </rPh>
     <rPh sb="20" eb="22">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④ 面積変動 改修内容・工数調査中。</t>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>ヘンドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -705,7 +715,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1484,7 +1501,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1556,7 +1573,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>108.5</v>
+        <v>116.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1867,11 +1884,19 @@
       <c r="B26" s="18">
         <v>16</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="19">
+        <v>44749</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
@@ -1976,101 +2001,106 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
     <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D27:D28">
     <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2085,20 +2115,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2321,6 +2351,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2333,14 +2371,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -420,6 +420,19 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④ 面積変動 仕様調査中。</t>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -715,7 +728,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1501,7 +1521,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1573,7 +1593,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>116.5</v>
+        <v>124.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1902,11 +1922,19 @@
       <c r="B27" s="18">
         <v>17</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="19">
+        <v>44750</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -2001,106 +2029,111 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
     <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2115,23 +2148,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2350,10 +2366,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2376,20 +2420,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -425,6 +425,19 @@
   </si>
   <si>
     <t>④ 面積変動 仕様調査中。</t>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④ 面積変動 仕様調査。</t>
     <rPh sb="2" eb="4">
       <t>メンセキ</t>
     </rPh>
@@ -728,7 +741,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1521,7 +1548,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1593,7 +1620,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>124.5</v>
+        <v>132.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1940,11 +1967,19 @@
       <c r="B28" s="18">
         <v>18</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="19">
+        <v>44753</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
@@ -2029,111 +2064,111 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2148,6 +2183,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2366,14 +2409,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2384,6 +2419,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2402,23 +2454,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -446,6 +446,16 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤ 位相ズレ解析仕様調査。</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1548,7 +1558,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1620,7 +1630,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>132.5</v>
+        <v>140.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1985,11 +1995,19 @@
       <c r="B29" s="18">
         <v>19</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="19">
+        <v>44754</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
@@ -2064,111 +2082,121 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D36">
     <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="C30:C36">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2183,14 +2211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2409,6 +2429,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2419,23 +2447,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2454,6 +2465,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -456,6 +456,16 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列、②パタ検工数見積り。</t>
+    <rPh sb="10" eb="12">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミツモ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -751,7 +761,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1556,9 +1580,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2013,11 +2037,19 @@
       <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="19">
+        <v>44755</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
@@ -2082,121 +2114,131 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D36">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C36">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="C31:C36">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2211,6 +2253,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2429,14 +2479,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2447,6 +2489,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2465,23 +2524,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -466,6 +466,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ミツモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④ 面積変動工数見積り中。</t>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -761,7 +768,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1582,7 +1603,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2055,11 +2076,19 @@
       <c r="B31" s="18">
         <v>21</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="19">
+        <v>44756</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
@@ -2114,131 +2143,141 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C36">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C36">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2253,14 +2292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2479,6 +2510,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2489,23 +2528,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2524,6 +2546,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -474,6 +474,10 @@
     <rPh sb="11" eb="12">
       <t>ナカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④ 面積変動工数見積り。 ⑤ 位相ズレ解析見積り中。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -768,7 +772,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1601,9 +1619,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2094,11 +2112,19 @@
       <c r="B32" s="18">
         <v>22</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="19">
+        <v>44757</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="F32" s="22"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
@@ -2143,141 +2169,151 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D36">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C36">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2292,6 +2328,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2510,38 +2563,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2564,9 +2589,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -477,7 +477,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>④ 面積変動工数見積り。 ⑤ 位相ズレ解析見積り中。</t>
+    <t>⑤ 位相ズレ解析工数見積り。
+⑨ レオン・カム・モールド図面作成工数見積り中。</t>
+    <rPh sb="8" eb="10">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④ 面積変動工数見積り。 ⑤ 位相ズレ解析工数見積り中。</t>
+    <rPh sb="21" eb="23">
+      <t>コウスウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -772,7 +792,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1621,7 +1655,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2119,22 +2153,30 @@
         <v>14</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>23</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="19">
+        <v>44761</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="F33" s="22"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
@@ -2169,151 +2211,161 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2328,23 +2380,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2563,10 +2598,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2589,20 +2652,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -496,6 +496,19 @@
   <si>
     <t>④ 面積変動工数見積り。 ⑤ 位相ズレ解析工数見積り中。</t>
     <rPh sb="21" eb="23">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑨ レオン・カム・モールド図面作成工数見積り。</t>
+    <rPh sb="13" eb="15">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>コウスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -792,7 +805,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1655,7 +1682,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2182,11 +2209,19 @@
       <c r="B34" s="18">
         <v>24</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="21"/>
+      <c r="C34" s="19">
+        <v>44762</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F34" s="22"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
@@ -2211,161 +2246,171 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D36">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C36">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2380,6 +2425,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2598,38 +2660,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2652,9 +2686,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -511,6 +511,10 @@
     <rPh sb="17" eb="19">
       <t>コウスウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑦承認申請図・法規申請図工数見積り中。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -805,7 +809,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1680,9 +1698,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2227,11 +2245,19 @@
       <c r="B35" s="18">
         <v>25</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="21"/>
+      <c r="C35" s="19">
+        <v>44763</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="F35" s="22"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
@@ -2246,171 +2272,181 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="34" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="29" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D36">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C36">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2425,20 +2461,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2661,14 +2697,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2681,6 +2709,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -35,7 +35,7 @@
     <definedName name="BB">#REF!</definedName>
     <definedName name="BC">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">作業報告書!$9:$10</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
     <definedName name="SC_TEL">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -809,7 +809,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1698,9 +1712,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2263,190 +2277,198 @@
       <c r="B36" s="18">
         <v>26</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="21"/>
+      <c r="C36" s="19">
+        <v>44764</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="F36" s="22"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
+    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="34" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2461,20 +2483,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2697,6 +2719,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2709,14 +2739,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -35,7 +35,7 @@
     <definedName name="BB">#REF!</definedName>
     <definedName name="BC">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">作業報告書!$9:$10</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
     <definedName name="SC_TEL">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -515,6 +515,17 @@
   </si>
   <si>
     <t>⑦承認申請図・法規申請図工数見積り中。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・⑦承認申請図・法規申請図工数見積り。
+・④ 面積変動、⑤ 位相ズレ解析改良要望見積り。</t>
+    <rPh sb="36" eb="38">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウボウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -809,7 +820,679 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="134">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1709,12 +2392,12 @@
   <sheetPr codeName="Sheet17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2291,184 +2974,832 @@
         <v>8</v>
       </c>
     </row>
+    <row r="37" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="18">
+        <v>27</v>
+      </c>
+      <c r="C37" s="19">
+        <v>44767</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="18">
+        <v>28</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="18">
+        <v>29</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="18">
+        <v>30</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="18">
+        <v>31</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="18">
+        <v>32</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="18">
+        <v>33</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="18">
+        <v>34</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="18">
+        <v>35</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="18">
+        <v>36</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="18">
+        <v>37</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="18">
+        <v>38</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="18">
+        <v>39</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="18">
+        <v>40</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="18">
+        <v>41</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="18">
+        <v>42</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="18">
+        <v>43</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="18">
+        <v>44</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="18">
+        <v>45</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="18">
+        <v>46</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="18">
+        <v>47</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="18">
+        <v>48</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="18">
+        <v>49</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="18">
+        <v>50</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="18">
+        <v>51</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="18">
+        <v>52</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="18">
+        <v>53</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="18">
+        <v>54</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="18">
+        <v>55</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="18">
+        <v>56</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="18">
+        <v>57</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="18">
+        <v>58</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 B12:B36 C19">
-    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="140" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
+    <cfRule type="expression" dxfId="132" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="136" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="135" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="125" priority="126" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="124" priority="125" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="123" priority="124" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="122" priority="123" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="121" priority="122" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="120" priority="121" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="119" priority="120" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="118" priority="119" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="117" priority="118" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="116" priority="117" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="115" priority="116" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="114" priority="115" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="113" priority="114" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="112" priority="113" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="111" priority="112" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="110" priority="111" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="109" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="108" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="107" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="105" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="104" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="103" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="102" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="101" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="99" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="98" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="87" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="84" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="83" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="80" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="77" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="75" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="69" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2483,20 +3814,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2719,14 +4050,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2739,6 +4062,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -526,6 +526,10 @@
     <rPh sb="38" eb="40">
       <t>ヨウボウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑨ レオン・カム・モールド図面作成改良要望見積り。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -820,231 +824,7 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -2397,7 +2177,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2996,11 +2776,19 @@
       <c r="B38" s="18">
         <v>28</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="19">
+        <v>44768</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="F38" s="22"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
@@ -3305,501 +3093,501 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="133" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="132" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="131" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="140" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="130" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="129" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="137" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="128" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="135" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="127" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="134" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="126" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="125" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="124" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="123" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="122" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="121" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="120" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="119" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="118" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="117" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="116" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="115" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="114" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="113" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="112" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="111" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="110" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="109" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="108" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="107" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="105" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="104" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="103" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="102" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="101" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="104" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="103" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="99" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="102" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="98" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="63" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="62" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="61" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="expression" dxfId="60" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="59" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="58" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="57" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="56" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="55" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="54" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="53" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="52" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="51" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="50" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="48" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="46" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="44" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="43" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="42" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="41" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="40" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="38" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="37" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="36" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="35" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="32" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="31" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="28" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="25" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="87" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="84" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="83" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="80" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="77" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="75" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="69" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -3814,20 +3602,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4050,6 +3838,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4062,14 +3858,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -530,6 +530,20 @@
   </si>
   <si>
     <t>⑨ レオン・カム・モールド図面作成改良要望見積り。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 改良要望見積り。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列 仕様調査</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウサ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -824,7 +838,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2175,9 +2203,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2794,31 +2822,55 @@
       <c r="B39" s="18">
         <v>29</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="19">
+        <v>44769</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
         <v>30</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="21"/>
+      <c r="C40" s="19">
+        <v>44770</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="18">
         <v>31</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="19">
+        <v>44771</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="F41" s="22"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="18">
@@ -3093,501 +3145,491 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="101" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="100" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="99" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="98" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="97" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="96" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="95" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="94" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="93" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="92" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="91" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="90" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="89" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="88" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="87" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="86" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="85" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="84" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="83" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="82" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="81" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="80" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="79" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="78" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="77" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="76" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="75" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="74" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="73" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="72" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="71" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="70" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="69" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="68" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="67" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="66" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="61" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="60" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="59" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="58" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="56" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="55" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="53" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="52" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="49" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="45" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="44" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="42" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="41" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="40" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="34" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="26" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="20" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="63" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="62" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="61" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="60" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="59" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="58" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="57" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="56" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="55" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="54" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="53" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="52" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="51" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="50" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="48" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="46" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="44" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="43" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="42" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="41" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="40" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="38" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="37" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="36" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="35" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="32" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="31" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="28" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="25" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -3602,23 +3644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -3837,10 +3862,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3863,20 +3916,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -12,34 +12,58 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
   </bookViews>
   <sheets>
-    <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
+    <sheet name="作業報告書（8月）" sheetId="2" r:id="rId1"/>
+    <sheet name="作業報告書（6～7月）" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_CDK1" localSheetId="0" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="__123Graph_CDK1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">作業報告書!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作業報告書（6～7月）'!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'作業報告書（8月）'!$B$10:$G$10</definedName>
+    <definedName name="AA" localSheetId="0">#REF!</definedName>
     <definedName name="AA">#REF!</definedName>
+    <definedName name="AB" localSheetId="0">#REF!</definedName>
     <definedName name="AB">#REF!</definedName>
+    <definedName name="AC" localSheetId="0">#REF!</definedName>
     <definedName name="AC">#REF!</definedName>
+    <definedName name="AD" localSheetId="0">#REF!</definedName>
     <definedName name="AD">#REF!</definedName>
+    <definedName name="AE" localSheetId="0">#REF!</definedName>
     <definedName name="AE">#REF!</definedName>
+    <definedName name="AF" localSheetId="0">#REF!</definedName>
     <definedName name="AF">#REF!</definedName>
+    <definedName name="AG" localSheetId="0">#REF!</definedName>
     <definedName name="AG">#REF!</definedName>
+    <definedName name="AH" localSheetId="0">#REF!</definedName>
     <definedName name="AH">#REF!</definedName>
+    <definedName name="AI" localSheetId="0">#REF!</definedName>
     <definedName name="AI">#REF!</definedName>
+    <definedName name="AJ" localSheetId="0">#REF!</definedName>
     <definedName name="AJ">#REF!</definedName>
+    <definedName name="AK" localSheetId="0">#REF!</definedName>
     <definedName name="AK">#REF!</definedName>
+    <definedName name="BA" localSheetId="0">#REF!</definedName>
     <definedName name="BA">#REF!</definedName>
+    <definedName name="BB" localSheetId="0">#REF!</definedName>
     <definedName name="BB">#REF!</definedName>
+    <definedName name="BC" localSheetId="0">#REF!</definedName>
     <definedName name="BC">#REF!</definedName>
+    <definedName name="BD" localSheetId="0">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">作業報告書!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'作業報告書（6～7月）'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'作業報告書（8月）'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'作業報告書（6～7月）'!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'作業報告書（8月）'!$9:$10</definedName>
+    <definedName name="SC_ADDRESS" localSheetId="0">#REF!</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
+    <definedName name="SC_TEL" localSheetId="0">#REF!</definedName>
     <definedName name="SC_TEL">#REF!</definedName>
+    <definedName name="SC_ZIPCODE" localSheetId="0">#REF!</definedName>
     <definedName name="SC_ZIPCODE">#REF!</definedName>
+    <definedName name="工事番号と工事件名" localSheetId="0">#REF!</definedName>
     <definedName name="工事番号と工事件名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -59,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -543,6 +567,19 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①円弧配列 マトリックス図作成中。</t>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -838,7 +875,651 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="196">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1586,6 +2267,308 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1758462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41439</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5099539" y="127443"/>
+          <a:ext cx="1865842" cy="414851"/>
+          <a:chOff x="1178" y="9"/>
+          <a:chExt cx="226" cy="45"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1246" y="9"/>
+            <a:ext cx="150" cy="45"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1178" y="32"/>
+            <a:ext cx="226" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFFFFF"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="333333">
+                  <a:alpha val="19000"/>
+                </a:srgbClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447576" cy="422167"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="77404"/>
+          <a:ext cx="1447576" cy="422167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB"/>
+            </a:rPr>
+            <a:t>作業報告書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="43236" y="552443"/>
+          <a:ext cx="6368746" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="333333"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="19000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2197,15 +3180,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet17">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2277,7 +3260,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>140.5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -2314,565 +3297,325 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B11" s="18">
         <v>1</v>
       </c>
       <c r="C11" s="19">
-        <v>44727</v>
+        <v>44774</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="19">
-        <v>44728</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19">
-        <v>44729</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="20">
-        <v>8</v>
-      </c>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19">
-        <v>44732</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19">
-        <v>44733</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19">
-        <v>44734</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19">
-        <v>44735</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="20">
-        <v>8</v>
-      </c>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19">
-        <v>44736</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="20">
-        <v>8.5</v>
-      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19">
-        <v>44739</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="20">
-        <v>5</v>
-      </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19">
-        <v>44740</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="20">
-        <v>5</v>
-      </c>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
         <v>11</v>
       </c>
-      <c r="C21" s="19">
-        <v>44741</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="20">
-        <v>4</v>
-      </c>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19">
-        <v>44742</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="20">
-        <v>8</v>
-      </c>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19">
-        <v>44743</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="20">
-        <v>7</v>
-      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19">
-        <v>44747</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19">
-        <v>44748</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="20">
-        <v>8</v>
-      </c>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
         <v>16</v>
       </c>
-      <c r="C26" s="19">
-        <v>44749</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="20">
-        <v>8</v>
-      </c>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
         <v>17</v>
       </c>
-      <c r="C27" s="19">
-        <v>44750</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="20">
-        <v>8</v>
-      </c>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>18</v>
       </c>
-      <c r="C28" s="19">
-        <v>44753</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="20">
-        <v>8</v>
-      </c>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>19</v>
       </c>
-      <c r="C29" s="19">
-        <v>44754</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="20">
-        <v>8</v>
-      </c>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C30" s="19">
-        <v>44755</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="20">
-        <v>2</v>
-      </c>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>21</v>
       </c>
-      <c r="C31" s="19">
-        <v>44756</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="20">
-        <v>8</v>
-      </c>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>22</v>
       </c>
-      <c r="C32" s="19">
-        <v>44757</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>23</v>
       </c>
-      <c r="C33" s="19">
-        <v>44761</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="20">
-        <v>8</v>
-      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>24</v>
       </c>
-      <c r="C34" s="19">
-        <v>44762</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="20">
-        <v>8</v>
-      </c>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
         <v>25</v>
       </c>
-      <c r="C35" s="19">
-        <v>44763</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="20">
-        <v>8</v>
-      </c>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>26</v>
       </c>
-      <c r="C36" s="19">
-        <v>44764</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
         <v>27</v>
       </c>
-      <c r="C37" s="19">
-        <v>44767</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="20">
-        <v>8</v>
-      </c>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="18">
         <v>28</v>
       </c>
-      <c r="C38" s="19">
-        <v>44768</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="20">
-        <v>3</v>
-      </c>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>29</v>
       </c>
-      <c r="C39" s="19">
-        <v>44769</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
         <v>30</v>
       </c>
-      <c r="C40" s="19">
-        <v>44770</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="18">
         <v>31</v>
       </c>
-      <c r="C41" s="19">
-        <v>44771</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="18">
         <v>32</v>
       </c>
@@ -2882,7 +3625,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="18">
         <v>33</v>
       </c>
@@ -2892,7 +3635,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>34</v>
       </c>
@@ -2902,7 +3645,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
         <v>35</v>
       </c>
@@ -2912,7 +3655,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
         <v>36</v>
       </c>
@@ -2922,7 +3665,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>37</v>
       </c>
@@ -2932,7 +3675,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>38</v>
       </c>
@@ -2942,7 +3685,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
         <v>39</v>
       </c>
@@ -2952,7 +3695,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
         <v>40</v>
       </c>
@@ -2962,7 +3705,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="18">
         <v>41</v>
       </c>
@@ -2972,7 +3715,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
         <v>42</v>
       </c>
@@ -2982,7 +3725,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="18">
         <v>43</v>
       </c>
@@ -2992,7 +3735,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="18">
         <v>44</v>
       </c>
@@ -3002,7 +3745,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="18">
         <v>45</v>
       </c>
@@ -3145,442 +3888,442 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="103" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="102" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="97" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="101" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="100" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="99" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="98" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="97" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="96" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="95" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="94" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="93" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="92" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="91" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="90" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="89" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="88" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="87" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="86" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="85" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="84" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="83" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="82" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="81" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="80" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="79" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="78" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="77" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="76" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="75" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="74" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="73" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="72" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="71" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="70" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="69" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="68" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="61" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="60" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="59" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="58" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="56" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="55" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="53" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="52" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="49" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="45" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="44" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="42" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="41" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="40" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="34" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="26" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="20" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3631,6 +4374,1454 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.47244094488188981" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I68"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C62" sqref="C62:I63"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.875" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(G11:G29)</f>
+        <v>140.5</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44727</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44728</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44729</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44732</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44733</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44734</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44735</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44736</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>44739</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44740</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19">
+        <v>44741</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19">
+        <v>44742</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="18">
+        <v>13</v>
+      </c>
+      <c r="C23" s="19">
+        <v>44743</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19">
+        <v>44747</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="18">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19">
+        <v>44748</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="18">
+        <v>16</v>
+      </c>
+      <c r="C26" s="19">
+        <v>44749</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19">
+        <v>44750</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19">
+        <v>44753</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="18">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44754</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19">
+        <v>44755</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19">
+        <v>44756</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19">
+        <v>44757</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19">
+        <v>44761</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19">
+        <v>44762</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19">
+        <v>44763</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>26</v>
+      </c>
+      <c r="C36" s="19">
+        <v>44764</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="18">
+        <v>27</v>
+      </c>
+      <c r="C37" s="19">
+        <v>44767</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="18">
+        <v>28</v>
+      </c>
+      <c r="C38" s="19">
+        <v>44768</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="18">
+        <v>29</v>
+      </c>
+      <c r="C39" s="19">
+        <v>44769</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="18">
+        <v>30</v>
+      </c>
+      <c r="C40" s="19">
+        <v>44770</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="18">
+        <v>31</v>
+      </c>
+      <c r="C41" s="19">
+        <v>44771</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="18">
+        <v>32</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="18">
+        <v>33</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="18">
+        <v>34</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="18">
+        <v>35</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="18">
+        <v>36</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="18">
+        <v>37</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="18">
+        <v>38</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="18">
+        <v>39</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="18">
+        <v>40</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="18">
+        <v>41</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="18">
+        <v>42</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="18">
+        <v>43</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="18">
+        <v>44</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="18">
+        <v>45</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="18">
+        <v>46</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="18">
+        <v>47</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="18">
+        <v>48</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="18">
+        <v>49</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="18">
+        <v>50</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="18">
+        <v>51</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="18">
+        <v>52</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="18">
+        <v>53</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="18">
+        <v>54</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="18">
+        <v>55</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="18">
+        <v>56</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="18">
+        <v>57</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="18">
+        <v>58</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D14:D17 D19">
+    <cfRule type="expression" dxfId="195" priority="146" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
+    <cfRule type="expression" dxfId="194" priority="145" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="193" priority="144" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="192" priority="142" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="191" priority="141" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C27">
+    <cfRule type="expression" dxfId="190" priority="139" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="189" priority="138" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="188" priority="133" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="187" priority="132" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="186" priority="131" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="185" priority="130" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="184" priority="129" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="183" priority="128" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="182" priority="127" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="181" priority="126" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="180" priority="125" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="179" priority="124" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="178" priority="123" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="177" priority="122" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="176" priority="121" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="175" priority="120" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="174" priority="119" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="173" priority="118" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="172" priority="117" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="171" priority="116" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="170" priority="115" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="169" priority="114" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="168" priority="113" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="167" priority="112" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="166" priority="111" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="165" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="164" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="163" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="162" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="161" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="160" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="159" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="158" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="157" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="156" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="155" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="153" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="152" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="151" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="150" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="149" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="148" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="147" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="146" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="145" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="144" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="143" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="142" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="141" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="138" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="137" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="136" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="135" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="134" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="133" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="132" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="131" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="130" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="129" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="128" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="126" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="125" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="124" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="123" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="122" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="121" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="120" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="119" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="118" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="117" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="116" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="115" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="114" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="113" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="112" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="110" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="109" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="108" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="99" priority="2" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="98" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3644,6 +5835,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -3862,38 +6070,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3916,9 +6096,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -53,7 +53,7 @@
     <definedName name="BC">#REF!</definedName>
     <definedName name="BD" localSheetId="0">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'作業報告書（6～7月）'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'作業報告書（6～7月）'!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'作業報告書（8月）'!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'作業報告書（6～7月）'!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'作業報告書（8月）'!$9:$10</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -571,14 +571,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①円弧配列 マトリックス図作成中。</t>
-    <rPh sb="12" eb="13">
+    <t>① 円弧配列 マトリックス図作成中。</t>
+    <rPh sb="13" eb="14">
       <t>ズ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="14" eb="16">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="16" eb="17">
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -875,7 +875,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
+  <dxfs count="198">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3188,7 +3202,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3260,7 +3274,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3319,11 +3333,19 @@
       <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19">
+        <v>44775</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
@@ -3756,9 +3778,7 @@
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="18">
-        <v>46</v>
-      </c>
+      <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="18"/>
       <c r="E56" s="21"/>
@@ -3766,9 +3786,7 @@
       <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="18">
-        <v>47</v>
-      </c>
+      <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="18"/>
       <c r="E57" s="21"/>
@@ -3776,9 +3794,7 @@
       <c r="G57" s="20"/>
     </row>
     <row r="58" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="18">
-        <v>48</v>
-      </c>
+      <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="18"/>
       <c r="E58" s="21"/>
@@ -3786,9 +3802,7 @@
       <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="18">
-        <v>49</v>
-      </c>
+      <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="18"/>
       <c r="E59" s="21"/>
@@ -3796,9 +3810,7 @@
       <c r="G59" s="20"/>
     </row>
     <row r="60" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="18">
-        <v>50</v>
-      </c>
+      <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="18"/>
       <c r="E60" s="21"/>
@@ -3806,9 +3818,7 @@
       <c r="G60" s="20"/>
     </row>
     <row r="61" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="18">
-        <v>51</v>
-      </c>
+      <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="18"/>
       <c r="E61" s="21"/>
@@ -3816,9 +3826,7 @@
       <c r="G61" s="20"/>
     </row>
     <row r="62" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="18">
-        <v>52</v>
-      </c>
+      <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="18"/>
       <c r="E62" s="21"/>
@@ -3826,9 +3834,7 @@
       <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="18">
-        <v>53</v>
-      </c>
+      <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="18"/>
       <c r="E63" s="21"/>
@@ -3836,9 +3842,7 @@
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="18">
-        <v>54</v>
-      </c>
+      <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="18"/>
       <c r="E64" s="21"/>
@@ -3846,9 +3850,7 @@
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="18">
-        <v>55</v>
-      </c>
+      <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="18"/>
       <c r="E65" s="21"/>
@@ -3856,9 +3858,7 @@
       <c r="G65" s="20"/>
     </row>
     <row r="66" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="18">
-        <v>56</v>
-      </c>
+      <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="18"/>
       <c r="E66" s="21"/>
@@ -3866,9 +3866,7 @@
       <c r="G66" s="20"/>
     </row>
     <row r="67" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="18">
-        <v>57</v>
-      </c>
+      <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="18"/>
       <c r="E67" s="21"/>
@@ -3876,9 +3874,7 @@
       <c r="G67" s="20"/>
     </row>
     <row r="68" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="18">
-        <v>58</v>
-      </c>
+      <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="18"/>
       <c r="E68" s="21"/>
@@ -3888,491 +3884,491 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="96" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="95" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C27">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="94" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="91" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="87" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="84" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="83" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="80" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="79" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="77" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="75" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="69" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="67" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -4396,7 +4392,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5064,9 +5060,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="18">
-        <v>32</v>
-      </c>
+      <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="18"/>
       <c r="E42" s="21"/>
@@ -5074,9 +5068,7 @@
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="18">
-        <v>33</v>
-      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="18"/>
       <c r="E43" s="21"/>
@@ -5084,9 +5076,7 @@
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="18">
-        <v>34</v>
-      </c>
+      <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="18"/>
       <c r="E44" s="21"/>
@@ -5094,9 +5084,7 @@
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="18">
-        <v>35</v>
-      </c>
+      <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="18"/>
       <c r="E45" s="21"/>
@@ -5104,9 +5092,7 @@
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="18">
-        <v>36</v>
-      </c>
+      <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="18"/>
       <c r="E46" s="21"/>
@@ -5114,9 +5100,7 @@
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="18">
-        <v>37</v>
-      </c>
+      <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="18"/>
       <c r="E47" s="21"/>
@@ -5124,9 +5108,7 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="18">
-        <v>38</v>
-      </c>
+      <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="18"/>
       <c r="E48" s="21"/>
@@ -5134,9 +5116,7 @@
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="18">
-        <v>39</v>
-      </c>
+      <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="18"/>
       <c r="E49" s="21"/>
@@ -5144,9 +5124,7 @@
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="18">
-        <v>40</v>
-      </c>
+      <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="18"/>
       <c r="E50" s="21"/>
@@ -5154,9 +5132,7 @@
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="18">
-        <v>41</v>
-      </c>
+      <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="18"/>
       <c r="E51" s="21"/>
@@ -5164,9 +5140,7 @@
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="18">
-        <v>42</v>
-      </c>
+      <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="18"/>
       <c r="E52" s="21"/>
@@ -5174,9 +5148,7 @@
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="18">
-        <v>43</v>
-      </c>
+      <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="18"/>
       <c r="E53" s="21"/>
@@ -5184,9 +5156,7 @@
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="18">
-        <v>44</v>
-      </c>
+      <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="18"/>
       <c r="E54" s="21"/>
@@ -5194,9 +5164,7 @@
       <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="18">
-        <v>45</v>
-      </c>
+      <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="18"/>
       <c r="E55" s="21"/>
@@ -5204,9 +5172,7 @@
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="18">
-        <v>46</v>
-      </c>
+      <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="18"/>
       <c r="E56" s="21"/>
@@ -5214,9 +5180,7 @@
       <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="18">
-        <v>47</v>
-      </c>
+      <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="18"/>
       <c r="E57" s="21"/>
@@ -5224,9 +5188,7 @@
       <c r="G57" s="20"/>
     </row>
     <row r="58" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="18">
-        <v>48</v>
-      </c>
+      <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="18"/>
       <c r="E58" s="21"/>
@@ -5234,9 +5196,7 @@
       <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="18">
-        <v>49</v>
-      </c>
+      <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="18"/>
       <c r="E59" s="21"/>
@@ -5244,9 +5204,7 @@
       <c r="G59" s="20"/>
     </row>
     <row r="60" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="18">
-        <v>50</v>
-      </c>
+      <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="18"/>
       <c r="E60" s="21"/>
@@ -5254,9 +5212,7 @@
       <c r="G60" s="20"/>
     </row>
     <row r="61" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="18">
-        <v>51</v>
-      </c>
+      <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="18"/>
       <c r="E61" s="21"/>
@@ -5264,9 +5220,7 @@
       <c r="G61" s="20"/>
     </row>
     <row r="62" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="18">
-        <v>52</v>
-      </c>
+      <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="18"/>
       <c r="E62" s="21"/>
@@ -5274,9 +5228,7 @@
       <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="18">
-        <v>53</v>
-      </c>
+      <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="18"/>
       <c r="E63" s="21"/>
@@ -5284,9 +5236,7 @@
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="18">
-        <v>54</v>
-      </c>
+      <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="18"/>
       <c r="E64" s="21"/>
@@ -5294,9 +5244,7 @@
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="18">
-        <v>55</v>
-      </c>
+      <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="18"/>
       <c r="E65" s="21"/>
@@ -5304,9 +5252,7 @@
       <c r="G65" s="20"/>
     </row>
     <row r="66" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="18">
-        <v>56</v>
-      </c>
+      <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="18"/>
       <c r="E66" s="21"/>
@@ -5314,9 +5260,7 @@
       <c r="G66" s="20"/>
     </row>
     <row r="67" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="18">
-        <v>57</v>
-      </c>
+      <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="18"/>
       <c r="E67" s="21"/>
@@ -5324,9 +5268,7 @@
       <c r="G67" s="20"/>
     </row>
     <row r="68" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="18">
-        <v>58</v>
-      </c>
+      <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="18"/>
       <c r="E68" s="21"/>
@@ -5336,492 +5278,492 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="195" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="194" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="193" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="192" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="191" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="190" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="189" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="188" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="187" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="186" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="185" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="184" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="183" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="182" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="181" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="180" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="179" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="178" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="177" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="176" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="175" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="174" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="173" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="172" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="171" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="170" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="169" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="168" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="167" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="166" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="165" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="164" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="163" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="162" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="161" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="160" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="159" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="158" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="157" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="156" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="155" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="153" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="152" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="151" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="150" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="149" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="148" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="147" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="146" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="145" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="144" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="143" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="142" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="141" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="138" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="137" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="136" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="135" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="134" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="133" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="132" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="131" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="130" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="129" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="128" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="126" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="125" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="124" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="123" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="122" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="121" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="120" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="119" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="118" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="117" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="116" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="115" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="114" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="113" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="112" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="110" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="109" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="108" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="99" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="98" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -580,6 +580,19 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 工程チェック表作成。</t>
+    <rPh sb="7" eb="9">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3202,7 +3215,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3274,7 +3287,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3351,11 +3364,19 @@
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="19">
+        <v>44776</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
@@ -3884,491 +3905,496 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C14:C17 C19 B12:B68">
+    <cfRule type="expression" dxfId="196" priority="101" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5777,23 +5803,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6012,10 +6021,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6038,20 +6075,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -584,7 +584,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>① 円弧配列 工程チェック表作成。</t>
+    <t>① 円弧配列 工程チェック表作成中。</t>
     <rPh sb="7" eb="9">
       <t>コウテイ</t>
     </rPh>
@@ -593,6 +593,9 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -888,7 +891,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="199">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3215,7 +3225,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3287,7 +3297,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3382,11 +3392,19 @@
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="19">
+        <v>44777</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
@@ -3904,497 +3922,507 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="197" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C14:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="196" priority="101" stopIfTrue="1">
+  <conditionalFormatting sqref="D15:D17 D19">
+    <cfRule type="expression" dxfId="198" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C15:C17 C19 B12:B68">
+    <cfRule type="expression" dxfId="197" priority="103" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="196" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="195" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="194" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="193" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="99" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C43">
     <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C50">
     <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C55">
     <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5803,6 +5831,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6021,38 +6066,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6075,9 +6092,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -596,6 +596,29 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 原始文字登録調査。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3225,7 +3248,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3297,7 +3320,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3410,11 +3433,19 @@
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19">
+        <v>44778</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
@@ -4418,12 +4449,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5332,492 +5363,492 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="99" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="98" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="97" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="96" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="95" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="94" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="93" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="92" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="91" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="89" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="88" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="86" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="85" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="84" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="83" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="82" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="81" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="80" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="79" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="78" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="77" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="76" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="75" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="74" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="73" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="72" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="70" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="69" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="68" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="67" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="65" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="64" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="62" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="61" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="60" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="58" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="56" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="53" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="51" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="50" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="49" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="48" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="46" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="45" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="44" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="43" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="39" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5831,23 +5862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6066,10 +6080,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6092,20 +6134,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -914,7 +914,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
+  <dxfs count="201">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3248,7 +3262,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3320,7 +3334,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3451,11 +3465,19 @@
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="19">
+        <v>44781</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
@@ -3953,508 +3975,518 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D15:D17 D19">
+  <conditionalFormatting sqref="D15 D19 D17">
+    <cfRule type="expression" dxfId="200" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C15 C19 B12:B68 C17">
+    <cfRule type="expression" dxfId="199" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="198" priority="104" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C15:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="197" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="196" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="195" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="102" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="194" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="101" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C43">
     <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C50">
     <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C55">
     <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="99" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="98" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5363,492 +5395,492 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="97" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="96" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="95" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="94" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="93" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="92" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="91" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="90" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="89" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="88" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="87" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="86" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="85" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="84" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="83" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="82" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="81" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="80" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="79" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="78" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="77" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="76" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="75" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="74" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="73" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="72" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="71" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="70" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="69" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="68" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="67" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="66" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="65" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="64" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="63" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="62" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="61" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="60" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="59" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="58" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="56" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="55" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="53" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="52" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="49" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="45" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="44" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="42" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="41" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="40" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="39" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="34" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="26" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="20" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5862,6 +5894,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6080,38 +6129,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6134,9 +6155,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -618,6 +618,28 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 原始文字・編集文字登録調査。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -914,7 +936,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="201">
+  <dxfs count="203">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3262,7 +3298,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3334,7 +3370,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3483,11 +3519,19 @@
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="19">
+        <v>44782</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
@@ -3975,517 +4019,527 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D15 D19 D17">
+  <conditionalFormatting sqref="D15 D19">
+    <cfRule type="expression" dxfId="202" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C15 C19 B12:B68">
+    <cfRule type="expression" dxfId="201" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="200" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C15 C19 B12:B68 C17">
-    <cfRule type="expression" dxfId="199" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="198" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="197" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="104" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="196" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="103" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C43">
     <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C50">
     <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C55">
     <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5894,23 +5948,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6129,10 +6166,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6155,20 +6220,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -640,6 +640,22 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="18" eb="20">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 編集文字登録調査。</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -936,7 +952,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="203">
+  <dxfs count="205">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3298,7 +3328,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3370,7 +3400,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3537,11 +3567,19 @@
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="19">
+        <v>44783</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
@@ -4020,526 +4058,526 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15 D19">
+    <cfRule type="expression" dxfId="204" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C15 C19 B12:B68">
+    <cfRule type="expression" dxfId="203" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="202" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C15 C19 B12:B68">
-    <cfRule type="expression" dxfId="201" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="200" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="199" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="198" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5948,6 +5986,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6166,38 +6221,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6220,9 +6247,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -656,6 +656,22 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 編集文字登録・ラベリング調査。</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3328,7 +3344,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3400,7 +3416,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3585,11 +3601,19 @@
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="19">
+        <v>44785</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
@@ -4057,527 +4081,537 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D15 D19">
-    <cfRule type="expression" dxfId="204" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C15 C19 B12:B68">
-    <cfRule type="expression" dxfId="203" priority="109" stopIfTrue="1">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="204" priority="112" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C15 B12:B68">
+    <cfRule type="expression" dxfId="203" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="202" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="201" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="200" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C43">
     <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C50">
     <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C55">
     <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5986,23 +6020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6221,10 +6238,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6247,20 +6292,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -672,6 +672,22 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="19" eb="21">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 編集文字・モールド番号ラベリング調査。</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -968,7 +984,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="207">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3344,7 +3374,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3416,7 +3446,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3619,11 +3649,19 @@
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19">
+        <v>44795</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
@@ -4082,536 +4120,536 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="206" priority="114" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 C15 B12:B68">
+    <cfRule type="expression" dxfId="205" priority="113" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="204" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="203" priority="111" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="202" priority="110" stopIfTrue="1">
+  <conditionalFormatting sqref="C21:C27">
+    <cfRule type="expression" dxfId="202" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="201" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="200" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6020,6 +6058,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6238,38 +6293,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6292,9 +6319,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -677,17 +677,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>① 円弧配列 編集文字・モールド番号ラベリング調査。</t>
+    <t>① 円弧配列 編集文字ラベリング・モールド番号呼出調査。</t>
     <rPh sb="7" eb="9">
       <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>モジ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="21" eb="23">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 モールド番号呼出等の調査。</t>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3374,7 +3399,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3446,7 +3471,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3667,11 +3692,19 @@
       <c r="B21" s="18">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="19">
+        <v>44796</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
@@ -4120,536 +4153,541 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="206" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="205" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="204" priority="112" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="202" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="114" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C27">
+    <cfRule type="expression" dxfId="203" priority="111" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6058,23 +6096,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6293,10 +6314,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6319,20 +6368,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1009,7 +1009,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="207">
+  <dxfs count="208">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3399,7 +3406,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3471,7 +3478,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3710,11 +3717,19 @@
       <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="19">
+        <v>44797</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
@@ -4153,541 +4168,546 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="206" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="205" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="204" priority="114" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C27">
-    <cfRule type="expression" dxfId="203" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="116" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C27">
+    <cfRule type="expression" dxfId="204" priority="113" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C22">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6096,6 +6116,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6314,38 +6351,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6368,9 +6377,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -714,6 +714,16 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① 円弧配列 外部設計。</t>
+    <rPh sb="7" eb="9">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1009,7 +1019,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="209">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3406,7 +3423,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3478,7 +3495,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3735,11 +3752,19 @@
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="19">
+        <v>44798</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
@@ -4168,546 +4193,551 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="207" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="206" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="205" priority="116" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C27">
-    <cfRule type="expression" dxfId="204" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="118" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C27">
+    <cfRule type="expression" dxfId="205" priority="115" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6116,23 +6146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6351,10 +6364,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6377,20 +6418,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1019,7 +1019,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="209">
+  <dxfs count="210">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3423,7 +3430,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3495,7 +3502,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3770,11 +3777,19 @@
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="19">
+        <v>44799</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
@@ -4193,551 +4208,556 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="208" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="207" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="206" priority="118" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C27">
-    <cfRule type="expression" dxfId="205" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="120" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="206" priority="117" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -4761,7 +4781,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6146,6 +6166,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6364,38 +6401,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6418,9 +6427,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1019,7 +1019,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="210">
+  <dxfs count="211">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3430,7 +3437,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3502,7 +3509,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3795,11 +3802,19 @@
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="19">
+        <v>44802</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
@@ -4208,556 +4223,561 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="209" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="208" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="207" priority="120" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="206" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="122" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="207" priority="119" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6166,23 +6186,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6401,10 +6404,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6427,20 +6458,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1019,7 +1019,28 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="214">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3435,9 +3456,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3509,7 +3530,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3820,21 +3841,37 @@
       <c r="B26" s="18">
         <v>16</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="19">
+        <v>44803</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
         <v>17</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="19">
+        <v>44804</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -4223,561 +4260,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="210" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="209" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="208" priority="122" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="207" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="126" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5687,492 +5729,492 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="99" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="98" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="97" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="96" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="95" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="94" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="93" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="92" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="91" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="89" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="88" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="86" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="85" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="84" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="83" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="82" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="81" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="80" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="79" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="78" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="77" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="76" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="75" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="74" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="73" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="72" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="70" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="69" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="68" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="67" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="65" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="64" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="62" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="61" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="60" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="58" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="56" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="53" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="51" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="50" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="49" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="48" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="46" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="45" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="44" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="43" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="39" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6186,6 +6228,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6404,38 +6463,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6458,9 +6489,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
   </bookViews>
   <sheets>
-    <sheet name="作業報告書（8月）" sheetId="2" r:id="rId1"/>
+    <sheet name="作業報告書（8月～）" sheetId="2" r:id="rId1"/>
     <sheet name="作業報告書（6～7月）" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -22,7 +22,7 @@
     <definedName name="__123Graph_CDK1" localSheetId="0" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="__123Graph_CDK1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作業報告書（6～7月）'!$B$10:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'作業報告書（8月）'!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'作業報告書（8月～）'!$B$10:$G$10</definedName>
     <definedName name="AA" localSheetId="0">#REF!</definedName>
     <definedName name="AA">#REF!</definedName>
     <definedName name="AB" localSheetId="0">#REF!</definedName>
@@ -54,9 +54,9 @@
     <definedName name="BD" localSheetId="0">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'作業報告書（6～7月）'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'作業報告書（8月）'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'作業報告書（8月～）'!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'作業報告書（6～7月）'!$9:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'作業報告書（8月）'!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'作業報告書（8月～）'!$9:$10</definedName>
     <definedName name="SC_ADDRESS" localSheetId="0">#REF!</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
     <definedName name="SC_TEL" localSheetId="0">#REF!</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1019,14 +1019,7 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="214">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="213">
     <dxf>
       <fill>
         <patternFill>
@@ -3458,7 +3451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3530,7 +3523,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3877,11 +3870,19 @@
       <c r="B28" s="18">
         <v>18</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="19">
+        <v>44805</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
@@ -4260,566 +4261,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="213" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="212" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="211" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="128" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -5729,492 +5730,492 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D14:D17 D19">
-    <cfRule type="expression" dxfId="101" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C13:C17 C19 B12:B68">
-    <cfRule type="expression" dxfId="100" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="99" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="98" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="97" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="96" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="95" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="94" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="93" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="92" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="91" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="130" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="90" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="129" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="89" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="88" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="127" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="87" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="126" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="86" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="125" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="85" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="124" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="84" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="123" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="83" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="122" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="82" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="121" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="81" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="120" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="80" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="119" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="79" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="118" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="78" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="117" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="77" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="76" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="75" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="74" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="73" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="72" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="71" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="70" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="69" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="68" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="67" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="66" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="65" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="64" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="62" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="61" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="60" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="59" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="58" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="57" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="56" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="55" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="54" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="53" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="52" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="51" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="50" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="49" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="48" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="47" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="46" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="45" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="58" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="44" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="43" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="41" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="52" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="40" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="51" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="49" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="38" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="37" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="35" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="34" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="33" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6228,23 +6229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6463,10 +6447,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6489,20 +6501,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3451,7 +3451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -3888,11 +3888,19 @@
       <c r="B29" s="18">
         <v>19</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="19">
+        <v>44806</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
@@ -4261,566 +4269,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="132" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="131" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="130" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6229,6 +6237,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6447,38 +6472,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6501,9 +6498,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3451,7 +3451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3906,11 +3906,19 @@
       <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="19">
+        <v>44809</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
@@ -4269,566 +4277,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="134" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="133" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="132" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6237,23 +6245,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6472,10 +6463,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6498,20 +6517,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3449,9 +3449,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3924,11 +3924,19 @@
       <c r="B31" s="18">
         <v>21</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="19">
+        <v>44810</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
@@ -4277,566 +4285,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="136" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="135" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="134" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6245,6 +6253,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6463,38 +6488,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6517,9 +6514,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3451,7 +3451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3942,11 +3942,19 @@
       <c r="B32" s="18">
         <v>22</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="19">
+        <v>44811</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="22"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
@@ -4285,566 +4293,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="138" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="137" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="136" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6253,23 +6261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6488,10 +6479,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6514,20 +6533,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3449,9 +3449,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3960,11 +3960,19 @@
       <c r="B33" s="18">
         <v>23</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="19">
+        <v>44812</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F33" s="22"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
@@ -4293,566 +4301,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="140" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="139" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="138" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6261,6 +6269,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6479,38 +6504,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6533,9 +6530,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3449,9 +3449,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3978,11 +3978,19 @@
       <c r="B34" s="18">
         <v>24</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="21"/>
+      <c r="C34" s="19">
+        <v>44813</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F34" s="22"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
@@ -4301,566 +4309,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="142" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="141" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="140" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6269,23 +6277,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6504,10 +6495,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6530,20 +6549,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3451,7 +3451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3996,11 +3996,19 @@
       <c r="B35" s="18">
         <v>25</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="21"/>
+      <c r="C35" s="19">
+        <v>44816</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F35" s="22"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
@@ -4309,566 +4317,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="144" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="143" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="142" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6277,6 +6285,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6495,38 +6520,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6549,9 +6546,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3449,9 +3449,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4014,11 +4014,19 @@
       <c r="B36" s="18">
         <v>26</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="21"/>
+      <c r="C36" s="19">
+        <v>44817</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="22"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
@@ -4317,566 +4325,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="145" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="144" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6285,23 +6293,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6520,10 +6511,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6546,20 +6565,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3451,7 +3451,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4032,11 +4032,19 @@
       <c r="B37" s="18">
         <v>27</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="21"/>
+      <c r="C37" s="19">
+        <v>44818</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="18">
@@ -4325,566 +4333,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="148" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="147" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="146" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="209" priority="112" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="expression" dxfId="208" priority="111" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
     <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C50">
     <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C55">
     <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="155" priority="58" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="154" priority="57" stopIfTrue="1">
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6293,6 +6301,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6511,38 +6536,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6565,9 +6562,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3449,9 +3449,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4050,11 +4050,19 @@
       <c r="B38" s="18">
         <v>28</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="19">
+        <v>44819</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="22"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
@@ -4333,566 +4341,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="150" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="149" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="148" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="209" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="208" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="207" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="206" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="205" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="204" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="202" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="201" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="200" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="199" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="104" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="198" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="103" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="102" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="196" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="101" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="195" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="194" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="99" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="193" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="192" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="97" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="191" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="190" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="189" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="188" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="187" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="186" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="184" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="183" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="182" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="180" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="178" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="176" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="174" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="173" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="172" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="170" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="169" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="168" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="167" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="166" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="165" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="164" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="162" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="160" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="158" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="63" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="157" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="62" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="156" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="61" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6301,23 +6309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6536,10 +6527,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6562,20 +6581,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_平.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3449,9 +3449,9 @@
   <dimension ref="B1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4068,11 +4068,19 @@
       <c r="B39" s="18">
         <v>29</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="19">
+        <v>44820</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
@@ -4341,566 +4349,566 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="212" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="152" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 C15 B12:B68">
-    <cfRule type="expression" dxfId="211" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="151" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="210" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="150" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="209" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="116" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="208" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="115" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="207" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="114" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="206" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="113" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="205" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="112" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="204" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="111" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="203" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="110" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="202" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="109" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="201" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="108" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="200" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="107" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="199" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="106" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="198" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="105" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="197" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="104" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="196" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="103" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="195" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="102" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="194" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="101" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="193" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="100" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="192" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="99" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="191" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="98" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="190" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="97" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="189" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="96" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="188" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="95" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="187" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="94" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="186" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="93" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="185" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="92" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="184" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="91" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="183" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="90" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="182" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="89" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="181" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="88" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="180" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="87" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="179" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="86" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="178" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="85" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="177" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="84" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="83" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="175" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="82" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="174" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="81" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="173" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="80" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="172" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="79" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="171" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="78" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="170" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="77" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="169" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="76" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="168" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="75" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="167" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="74" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="166" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="73" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="165" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="72" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="164" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="71" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="163" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="70" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="69" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="161" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="68" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="160" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="67" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="159" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="66" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="158" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="65" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="157" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="64" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="156" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="63" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
+    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D41">
+    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="153" priority="56" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="152" priority="55" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="expression" dxfId="151" priority="54" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="150" priority="53" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="149" priority="52" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="148" priority="51" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="146" priority="49" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="142" priority="45" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="141" priority="44" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="140" priority="43" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="139" priority="42" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="136" priority="39" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="135" priority="38" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="134" priority="37" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="133" priority="36" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="132" priority="35" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="130" priority="33" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="128" priority="31" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="126" priority="29" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="120" priority="23" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="119" priority="22" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="118" priority="21" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="117" priority="20" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="116" priority="19" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="115" priority="18" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="113" priority="16" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="112" priority="15" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="109" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="106" priority="9" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="105" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="100" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -6309,6 +6317,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6527,38 +6552,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6581,9 +6578,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocum